--- a/result/with_base/134/arousal/s23_6.xlsx
+++ b/result/with_base/134/arousal/s23_6.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9347098171710968</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8050000071525574</v>
+        <v>0.8024553656578064</v>
       </c>
       <c r="C2" t="n">
-        <v>41747.5234375</v>
+        <v>11277.0380859375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8059090917760675</v>
+        <v>0.8223476900773889</v>
       </c>
       <c r="E2" t="n">
-        <v>41748.82137784091</v>
+        <v>11276.62074908088</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8850000202655792</v>
+        <v>0.8404017984867096</v>
       </c>
       <c r="C3" t="n">
-        <v>40968.96875</v>
+        <v>10971.1083984375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8812499913302335</v>
+        <v>0.8805147058823529</v>
       </c>
       <c r="E3" t="n">
-        <v>40970.57528409091</v>
+        <v>10969.89613970588</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.8487723171710968</v>
       </c>
       <c r="C4" t="n">
-        <v>40201.50390625</v>
+        <v>10669.03564453125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9113636341961947</v>
+        <v>0.9246323529411765</v>
       </c>
       <c r="E4" t="n">
-        <v>40201.71697443182</v>
+        <v>10667.63786764706</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.8738839328289032</v>
       </c>
       <c r="C5" t="n">
-        <v>39440.36328125</v>
+        <v>10374.03076171875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9388636350631714</v>
+        <v>0.9335609253715066</v>
       </c>
       <c r="E5" t="n">
-        <v>39440.44140625</v>
+        <v>10373.00034466912</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.8989955484867096</v>
       </c>
       <c r="C6" t="n">
-        <v>38689.787109375</v>
+        <v>10084.92138671875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9521590904756025</v>
+        <v>0.949514182174907</v>
       </c>
       <c r="E6" t="n">
-        <v>38689.74360795454</v>
+        <v>10083.92750459559</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9034598171710968</v>
       </c>
       <c r="C7" t="n">
-        <v>37949.9296875</v>
+        <v>9802.4912109375</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9622727253220298</v>
+        <v>0.9639574569814345</v>
       </c>
       <c r="E7" t="n">
-        <v>37949.79509943182</v>
+        <v>9801.29532398897</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.8995535671710968</v>
       </c>
       <c r="C8" t="n">
-        <v>37222.0703125</v>
+        <v>9526.89208984375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9706818244673989</v>
+        <v>0.9615283608436584</v>
       </c>
       <c r="E8" t="n">
-        <v>37221.76740056818</v>
+        <v>9525.652688419117</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9112723171710968</v>
       </c>
       <c r="C9" t="n">
-        <v>36506.09375</v>
+        <v>9257.74462890625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.969886373389851</v>
+        <v>0.9655330882352942</v>
       </c>
       <c r="E9" t="n">
-        <v>36505.53586647727</v>
+        <v>9256.401424632353</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9274553656578064</v>
       </c>
       <c r="C10" t="n">
-        <v>35801.736328125</v>
+        <v>8994.5576171875</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9792045571587302</v>
+        <v>0.9823398099226111</v>
       </c>
       <c r="E10" t="n">
-        <v>35801.11825284091</v>
+        <v>8993.387465533087</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9168526828289032</v>
       </c>
       <c r="C11" t="n">
-        <v>35109.783203125</v>
+        <v>8738.66015625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9796591021797874</v>
+        <v>0.9650078766486224</v>
       </c>
       <c r="E11" t="n">
-        <v>35109.12251420454</v>
+        <v>8737.544921875</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C12" t="n">
-        <v>34429.802734375</v>
+        <v>8488.49072265625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9837500127879056</v>
+        <v>0.9799763665479773</v>
       </c>
       <c r="E12" t="n">
-        <v>34429.04651988636</v>
+        <v>8487.651309742647</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C13" t="n">
-        <v>33761.74609375</v>
+        <v>8245.06005859375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9832954623482444</v>
+        <v>0.9776129196671879</v>
       </c>
       <c r="E13" t="n">
-        <v>33761.12819602273</v>
+        <v>8244.233628216913</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9486607015132904</v>
       </c>
       <c r="C14" t="n">
-        <v>33105.59765625</v>
+        <v>8007.666015625</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9853409203616056</v>
+        <v>0.9879201685681063</v>
       </c>
       <c r="E14" t="n">
-        <v>33105.10120738636</v>
+        <v>8006.856761259191</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9724999964237213</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C15" t="n">
-        <v>32461.15234375</v>
+        <v>7776.6455078125</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9875000065023248</v>
+        <v>0.9864758393343758</v>
       </c>
       <c r="E15" t="n">
-        <v>32460.56729403409</v>
+        <v>7775.704618566177</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C16" t="n">
-        <v>31828.5400390625</v>
+        <v>7551.262939453125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9882954629984769</v>
+        <v>0.9902179626857534</v>
       </c>
       <c r="E16" t="n">
-        <v>31827.74236505682</v>
+        <v>7550.537482766544</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9397321343421936</v>
       </c>
       <c r="C17" t="n">
-        <v>31206.802734375</v>
+        <v>7331.935302734375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9912500056353483</v>
+        <v>0.9883797273916357</v>
       </c>
       <c r="E17" t="n">
-        <v>31206.25</v>
+        <v>7331.240923713235</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9280133843421936</v>
       </c>
       <c r="C18" t="n">
-        <v>30596.888671875</v>
+        <v>7118.468505859375</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9909090995788574</v>
+        <v>0.9897584038622239</v>
       </c>
       <c r="E18" t="n">
-        <v>30596.20490056818</v>
+        <v>7117.640309053309</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9280133843421936</v>
       </c>
       <c r="C19" t="n">
-        <v>29998.1142578125</v>
+        <v>6910.408447265625</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9920454621315002</v>
+        <v>0.9875919117647058</v>
       </c>
       <c r="E19" t="n">
-        <v>29997.419921875</v>
+        <v>6909.691291360294</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9724999964237213</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C20" t="n">
-        <v>29410.1474609375</v>
+        <v>6707.97119140625</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9936363697052002</v>
+        <v>0.9898240531192106</v>
       </c>
       <c r="E20" t="n">
-        <v>29409.57634943182</v>
+        <v>6707.233139935662</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C21" t="n">
-        <v>28833.1552734375</v>
+        <v>6510.778564453125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9945454597473145</v>
+        <v>0.9907431707662695</v>
       </c>
       <c r="E21" t="n">
-        <v>28832.55308948864</v>
+        <v>6510.178825827206</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C22" t="n">
-        <v>28266.5947265625</v>
+        <v>6319.070068359375</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9847689060603871</v>
       </c>
       <c r="E22" t="n">
-        <v>28266.20152698864</v>
+        <v>6318.457375919118</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9347098171710968</v>
       </c>
       <c r="C23" t="n">
-        <v>27710.6015625</v>
+        <v>6132.498779296875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9850315136068007</v>
       </c>
       <c r="E23" t="n">
-        <v>27710.31534090909</v>
+        <v>6131.826487821691</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9525000154972076</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C24" t="n">
-        <v>27165.3564453125</v>
+        <v>5950.661376953125</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9905681881037626</v>
+        <v>0.9954044117647058</v>
       </c>
       <c r="E24" t="n">
-        <v>27164.78213778409</v>
+        <v>5950.14697265625</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9525669515132904</v>
       </c>
       <c r="C25" t="n">
-        <v>26629.669921875</v>
+        <v>5773.94140625</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9961363673210144</v>
+        <v>0.9921218472368577</v>
       </c>
       <c r="E25" t="n">
-        <v>26629.234375</v>
+        <v>5773.465533088235</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9363839328289032</v>
       </c>
       <c r="C26" t="n">
-        <v>26104.2666015625</v>
+        <v>5602.030517578125</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9939600825309753</v>
       </c>
       <c r="E26" t="n">
-        <v>26103.75941051136</v>
+        <v>5601.483254825368</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C27" t="n">
-        <v>25588.7529296875</v>
+        <v>5434.714111328125</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9944852941176471</v>
       </c>
       <c r="E27" t="n">
-        <v>25588.08877840909</v>
+        <v>5434.201717601103</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9285714328289032</v>
       </c>
       <c r="C28" t="n">
-        <v>25082.283203125</v>
+        <v>5272.01806640625</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9961363673210144</v>
+        <v>0.9944852941176471</v>
       </c>
       <c r="E28" t="n">
-        <v>25081.96004971591</v>
+        <v>5271.474666819853</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.9363839328289032</v>
       </c>
       <c r="C29" t="n">
-        <v>24585.63671875</v>
+        <v>5113.742431640625</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9940909147262573</v>
+        <v>0.9986213235294118</v>
       </c>
       <c r="E29" t="n">
-        <v>24585.37855113636</v>
+        <v>5113.160903033088</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9213169515132904</v>
       </c>
       <c r="C30" t="n">
-        <v>24098.271484375</v>
+        <v>4959.834716796875</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9930409648839165</v>
       </c>
       <c r="E30" t="n">
-        <v>24098.06409801136</v>
+        <v>4959.248851102941</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.93359375</v>
       </c>
       <c r="C31" t="n">
-        <v>23620.216796875</v>
+        <v>4810.098876953125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9940909147262573</v>
+        <v>0.9944196413545048</v>
       </c>
       <c r="E31" t="n">
-        <v>23619.91175426136</v>
+        <v>4809.524730009191</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9508928656578064</v>
       </c>
       <c r="C32" t="n">
-        <v>23150.8662109375</v>
+        <v>4664.314208984375</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9977022058823529</v>
       </c>
       <c r="E32" t="n">
-        <v>23150.57794744318</v>
+        <v>4663.909955193015</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C33" t="n">
-        <v>22690.62109375</v>
+        <v>4522.7236328125</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9967830882352942</v>
       </c>
       <c r="E33" t="n">
-        <v>22690.14595170454</v>
+        <v>4522.335276884191</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9375</v>
       </c>
       <c r="C34" t="n">
-        <v>22238.6875</v>
+        <v>4385.120361328125</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9962578766486224</v>
       </c>
       <c r="E34" t="n">
-        <v>22238.31889204546</v>
+        <v>4384.649672564338</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.93359375</v>
       </c>
       <c r="C35" t="n">
-        <v>21795.49609375</v>
+        <v>4251.2392578125</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9948792001780342</v>
       </c>
       <c r="E35" t="n">
-        <v>21794.96697443182</v>
+        <v>4250.784524356618</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.92578125</v>
       </c>
       <c r="C36" t="n">
-        <v>21360.40625</v>
+        <v>4121.197265625</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9893644942956812</v>
       </c>
       <c r="E36" t="n">
-        <v>21359.93661221591</v>
+        <v>4120.665699678309</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C37" t="n">
-        <v>20933.337890625</v>
+        <v>3994.493530273438</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9967174354721519</v>
       </c>
       <c r="E37" t="n">
-        <v>20933.06338778409</v>
+        <v>3994.115018956802</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C38" t="n">
-        <v>20514.490234375</v>
+        <v>3871.446533203125</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0.9990152295897988</v>
       </c>
       <c r="E38" t="n">
-        <v>20514.22123579546</v>
+        <v>3871.108211741728</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C39" t="n">
-        <v>20103.552734375</v>
+        <v>3751.903686523438</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9957326685681063</v>
       </c>
       <c r="E39" t="n">
-        <v>20103.28213778409</v>
+        <v>3751.562873391544</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9724999964237213</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C40" t="n">
-        <v>19700.427734375</v>
+        <v>3635.812255859375</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.992056197979871</v>
       </c>
       <c r="E40" t="n">
-        <v>19700.06569602273</v>
+        <v>3635.390782973346</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.94140625</v>
       </c>
       <c r="C41" t="n">
-        <v>19304.8583984375</v>
+        <v>3522.751831054688</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9967174354721519</v>
       </c>
       <c r="E41" t="n">
-        <v>19304.46306818182</v>
+        <v>3522.468922334559</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9469866156578064</v>
       </c>
       <c r="C42" t="n">
-        <v>18916.9580078125</v>
+        <v>3412.990356445312</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9985227259722623</v>
+        <v>0.9977022058823529</v>
       </c>
       <c r="E42" t="n">
-        <v>18916.341796875</v>
+        <v>3412.70703125</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9302455484867096</v>
       </c>
       <c r="C43" t="n">
-        <v>18535.88671875</v>
+        <v>3306.428100585938</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9925157568034004</v>
       </c>
       <c r="E43" t="n">
-        <v>18535.560546875</v>
+        <v>3306.089858111213</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9469866156578064</v>
       </c>
       <c r="C44" t="n">
-        <v>18162.1923828125</v>
+        <v>3202.747802734375</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9967174354721519</v>
       </c>
       <c r="E44" t="n">
-        <v>18161.91583806818</v>
+        <v>3202.446748621323</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9425223171710968</v>
       </c>
       <c r="C45" t="n">
-        <v>17795.6796875</v>
+        <v>3102.114135742188</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9984090924263</v>
+        <v>0.9925157568034004</v>
       </c>
       <c r="E45" t="n">
-        <v>17795.34357244318</v>
+        <v>3101.784251493566</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.92578125</v>
       </c>
       <c r="C46" t="n">
-        <v>17436.02734375</v>
+        <v>3004.343994140625</v>
       </c>
       <c r="D46" t="n">
-        <v>0.996363639831543</v>
+        <v>0.995798317825093</v>
       </c>
       <c r="E46" t="n">
-        <v>17435.72940340909</v>
+        <v>3003.979707605698</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9724999964237213</v>
+        <v>0.94921875</v>
       </c>
       <c r="C47" t="n">
-        <v>17083.1279296875</v>
+        <v>2909.254516601562</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9958639705882353</v>
       </c>
       <c r="E47" t="n">
-        <v>17082.84197443182</v>
+        <v>2908.973977481618</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9274553656578064</v>
       </c>
       <c r="C48" t="n">
-        <v>16736.8291015625</v>
+        <v>2817.089477539062</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9801076685681063</v>
       </c>
       <c r="E48" t="n">
-        <v>16736.61860795454</v>
+        <v>2816.751565372243</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C49" t="n">
-        <v>16397.2265625</v>
+        <v>2727.4072265625</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9870010509210474</v>
       </c>
       <c r="E49" t="n">
-        <v>16396.9921875</v>
+        <v>2727.113367417279</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9386160671710968</v>
       </c>
       <c r="C50" t="n">
-        <v>16064.03564453125</v>
+        <v>2640.377197265625</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9915966391563416</v>
       </c>
       <c r="E50" t="n">
-        <v>16063.80894886364</v>
+        <v>2640.032844094669</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,927 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9347098171710968</v>
       </c>
       <c r="C51" t="n">
-        <v>15737.318359375</v>
+        <v>2555.752197265625</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9985227259722623</v>
+        <v>0.9931066176470589</v>
       </c>
       <c r="E51" t="n">
-        <v>15736.92924360795</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15416.65576171875</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15416.265625</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15101.943359375</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9994318160143766</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15101.7109375</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14793.3798828125</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14793.12642045455</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14490.59375</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14490.38991477273</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14193.65234375</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14193.43998579545</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13902.3173828125</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13902.14825994318</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13616.5537109375</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13616.38299005682</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13336.21923828125</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13336.08433948864</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13061.27734375</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13061.13396661932</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12791.6171875</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12791.46661931818</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12527.1083984375</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12526.96351207386</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12267.6689453125</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12267.51331676136</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C64" t="n">
-        <v>12013.23095703125</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E64" t="n">
-        <v>12013.03781960227</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11763.6064453125</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11763.43732244318</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11518.81982421875</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11518.61292613636</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11278.767578125</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11278.50266335227</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11043.1474609375</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11043.01775568182</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9900000095367432</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10812.1572265625</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10812.08558238636</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10585.6787109375</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10585.60182883523</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10363.56640625</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10363.47345525568</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10145.765625</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10145.65447443182</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9932.16259765625</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9932.059037642046</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9722.7783203125</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9722.58700284091</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9517.33056640625</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9994318160143766</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9517.17098721591</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9315.8671875</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9315.75008877841</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9118.412109375</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9118.257546164772</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8924.71484375</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8924.615678267046</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9550000131130219</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8734.89404296875</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8734.745472301136</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8548.69775390625</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8548.585227272728</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8366.181640625</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8366.058771306818</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9947986727647746</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8813559322033898</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9947986727647746</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8870056497175142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9947986727647746</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8983050847457628</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9947986727647746</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.96045197740113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.03174603174603174</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9947986727647746</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.96045197740113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.03174603174603174</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9947986727647746</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9717514124293786</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.04761904761904762</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9947986727647746</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9717514124293786</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.04761904761904762</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9947986727647746</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9830508474576272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.09523809523809523</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9947986727647746</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9830508474576272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.09523809523809523</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9947986727647746</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9887005649717514</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.2063492063492063</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9947986727647746</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9887005649717514</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.2063492063492063</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9947986727647746</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9943502824858758</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.4603174603174603</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9947986727647746</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9943502824858758</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.4603174603174603</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9947986727647746</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9947986727647746</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9947986727647745</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9947986727647745</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.4603174603174603</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9947986727647745</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.492063492063492</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9947986727647745</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5079365079365079</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9947986727647745</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.5396825396825397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.005649717514124294</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9947986727647745</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5396825396825397</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.005649717514124294</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9947986727647745</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7936507936507936</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.01129943502824859</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9947986727647745</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7936507936507936</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.01129943502824859</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9947986727647745</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.01694915254237288</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9947986727647745</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.01694915254237288</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9947986727647745</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9523809523809523</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.02824858757062147</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9947986727647745</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9523809523809523</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.02824858757062147</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9947986727647745</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9682539682539683</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.03954802259887006</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9947986727647745</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9682539682539683</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>0.03954802259887006</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9947986727647745</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.9947986727647745</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
+        <v>2555.489358340993</v>
       </c>
     </row>
   </sheetData>
